--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T94"/>
+  <dimension ref="A1:T89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>http://purl.org/m4m-dk-3/variables/</t>
+          <t>http://purl.org/test/variables/</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://purl.org/m4m-dk-3/variables/</t>
+          <t>http://purl.org/test/variables/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -745,11 +745,7 @@
           <t>dct:title</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Agro Ontology</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>Title of the vocabulary</t>
@@ -779,11 +775,7 @@
           <t>dct:description</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Potato Blight disease observation</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>Description of the controlled vocabulary</t>
@@ -813,16 +805,8 @@
           <t>dct:creator</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-6665-0896</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Poul Lassen</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
@@ -844,17 +828,13 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0001-7682-5613</t>
-        </is>
-      </c>
+          <t>dct:rights</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Jens Grønbech Hansen</t>
+          <t>License under which the vocabulary is provided</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -878,17 +858,13 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-6323-4942</t>
-        </is>
-      </c>
+          <t>pav:version</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Margit Styrbæk Jørgensen</t>
+          <t>Vocabulary version</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -912,17 +888,13 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-4093-2147</t>
-        </is>
-      </c>
+          <t>pav:createdOn</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Eva Overby Bach</t>
+          <t>Date when vocabulary was initially created (follow https://en.wikipedia.org/wiki/ISO_8601)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -946,17 +918,13 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-0721-551X</t>
-        </is>
-      </c>
+          <t>pav:lastUpdatedOn</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Ying Wang</t>
+          <t>Date of the last vocabulary update</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -980,7 +948,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>Definition of terms (optionally properties)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -1006,28 +974,64 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dct:rights</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://spdx.org/licenses/CC-BY-4.0.html</t>
+          <t>skos:prefLabel@en</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>License under which the vocabulary is provided</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+          <t>qudt:unit(separator=",")</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=";")</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1040,19 +1044,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pav:version</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0.0.1</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Vocabulary version</t>
-        </is>
-      </c>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
@@ -1074,19 +1070,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2022-01-21T10:03:28Z</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Date when vocabulary was initially created (follow https://en.wikipedia.org/wiki/ISO_8601)</t>
-        </is>
-      </c>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
@@ -1108,19 +1096,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2022-01-21T10:03:28Z</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Date of the last vocabulary update</t>
-        </is>
-      </c>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
@@ -1142,7 +1122,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Definition of terms (optionally properties)</t>
+          <t>vars:</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -1168,64 +1148,20 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Identifier</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@en</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>qudt:unit(separator=",")</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=";")</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -1238,21 +1174,13 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>vars:SampleID</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>SampleID</t>
-        </is>
-      </c>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Number given to the sample after institutes nameing standard</t>
-        </is>
-      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1272,21 +1200,13 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>vars:ObservationID</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>ObservationID</t>
-        </is>
-      </c>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Running number</t>
-        </is>
-      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
@@ -1306,21 +1226,13 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>vars:CropSeasonYear</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>CropSeasonYear</t>
-        </is>
-      </c>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>4 digit number representing the year the disease was observed. Automatically created from the Blight Tracker App.</t>
-        </is>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
@@ -1340,27 +1252,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>vars:CountryCode</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>CountryCode</t>
-        </is>
-      </c>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2 char code as defined in the ISO standard ISO 3166-1 alpha-2 codes </t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://www.iso.org/obp/ui/#search
-</t>
-        </is>
-      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
@@ -1379,22 +1278,14 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>vars:GrowthStageName</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>GrowthStageName</t>
-        </is>
-      </c>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>https://en.wikipedia.org/wiki/BBCH-scale_(potato)</t>
-        </is>
-      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
@@ -1413,14 +1304,10 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>vars:SeverityCategoryName</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>SeverityCategoryName</t>
-        </is>
-      </c>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
@@ -1443,21 +1330,13 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>vars:Disease</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Disease</t>
-        </is>
-      </c>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Crop Disease name</t>
-        </is>
-      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
@@ -1477,27 +1356,15 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>vars:PotatoLateBlight</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>PotatoLateBlight</t>
-        </is>
-      </c>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Potato disease caused by the oomycete Phytophthora infestans</t>
-        </is>
-      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>vars:Disease</t>
-        </is>
-      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1515,27 +1382,15 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>vars:PotatoEarlyBlight</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>PotatoEarlyBlight</t>
-        </is>
-      </c>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Potato disease caused by the fungus Alternaria solani</t>
-        </is>
-      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>vars:Disease</t>
-        </is>
-      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -3032,136 +2887,6 @@
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
     </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr"/>
-      <c r="T91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr"/>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="inlineStr"/>
-      <c r="T92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="inlineStr"/>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="inlineStr"/>
-      <c r="T93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="inlineStr"/>
-      <c r="T94" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1044,10 +1044,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
+          <t>vars:test</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1074,10 +1074,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
+          <t>vars:working</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>working</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -745,7 +745,11 @@
           <t>dct:title</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DTUbib test</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>Title of the vocabulary</t>
@@ -775,7 +779,11 @@
           <t>dct:description</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DTUbib test</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>Description of the controlled vocabulary</t>
@@ -805,7 +813,11 @@
           <t>dct:creator</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hannah</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>http://purl.org/test/variables/</t>
+          <t>http://ontology.deic.dk/cv/DTUbib-vocab/</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -1116,10 +1116,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
+          <t>vars:test</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1116,12 +1116,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>vars:test</t>
+          <t>vars:test2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>test2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://purl.org/test/variables/</t>
+          <t>http://ontology.deic.dk/cv/DTUbib-vocab/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DTUbib test</t>
+          <t>DTUbib-vocab</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DTUbib test</t>
+          <t>Vocabulary created during a M4M workshop with DTU library</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -813,11 +813,7 @@
           <t>dct:creator</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Hannah</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
@@ -1086,14 +1082,10 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>vars:working</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>working</t>
-        </is>
-      </c>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
@@ -1116,14 +1108,10 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>vars:test2</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>test2</t>
-        </is>
-      </c>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T89"/>
+  <dimension ref="A1:T90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -813,7 +813,11 @@
           <t>dct:creator</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-0454-4289</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
@@ -836,15 +840,15 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dct:rights</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>License under which the vocabulary is provided</t>
-        </is>
-      </c>
+          <t>dct:creator</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Jitka</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -866,13 +870,13 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>pav:version</t>
+          <t>dct:rights</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Vocabulary version</t>
+          <t>License under which the vocabulary is provided</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -896,13 +900,13 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
+          <t>pav:version</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Date when vocabulary was initially created (follow https://en.wikipedia.org/wiki/ISO_8601)</t>
+          <t>Vocabulary version</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -926,13 +930,13 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
+          <t>pav:createdOn</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Date of the last vocabulary update</t>
+          <t>Date when vocabulary was initially created (follow https://en.wikipedia.org/wiki/ISO_8601)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -956,11 +960,15 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Definition of terms (optionally properties)</t>
+          <t>pav:lastUpdatedOn</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Date of the last vocabulary update</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
@@ -982,64 +990,20 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Identifier</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@en</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>qudt:unit(separator=",")</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=";")</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>Definition of terms (optionally properties)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1052,24 +1016,64 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>vars:test</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+          <t>skos:prefLabel@en</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>qudt:unit(separator=",")</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=";")</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1082,10 +1086,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
+          <t>vars:test</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
@@ -2899,6 +2907,32 @@
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
     </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://ontology.deic.dk/cv/DTUbib-vocab/</t>
+          <t>http://purl.org/test/variables/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T90"/>
+  <dimension ref="A1:T89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,7 +498,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://purl.org/test/variables/</t>
+          <t>http://ontology.deic.dk/cv/DTUbib-vocab/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DTUbib-vocab</t>
+          <t>DTUbib test</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Vocabulary created during a M4M workshop with DTU library</t>
+          <t>DTUbib test</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-0454-4289</t>
+          <t>Hannah</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -840,15 +840,15 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Jitka</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>dct:rights</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>License under which the vocabulary is provided</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -870,13 +870,13 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>dct:rights</t>
+          <t>pav:version</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>License under which the vocabulary is provided</t>
+          <t>Vocabulary version</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -900,13 +900,13 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>pav:version</t>
+          <t>pav:createdOn</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Vocabulary version</t>
+          <t>Date when vocabulary was initially created (follow https://en.wikipedia.org/wiki/ISO_8601)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -930,13 +930,13 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
+          <t>pav:lastUpdatedOn</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Date when vocabulary was initially created (follow https://en.wikipedia.org/wiki/ISO_8601)</t>
+          <t>Date of the last vocabulary update</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -960,15 +960,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
+          <t>Definition of terms (optionally properties)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Date of the last vocabulary update</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
@@ -990,20 +986,64 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Definition of terms (optionally properties)</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@en</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>qudt:unit(separator=",")</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=";")</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1016,64 +1056,24 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>vars:test</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>qudt:unit(separator=",")</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=";")</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1086,12 +1086,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>vars:test</t>
+          <t>vars:working</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>working</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -2907,32 +2907,6 @@
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
     </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://purl.org/test/variables/</t>
+          <t>http://ontology.deic.dk/cv/DTUbib-vocab/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1116,10 +1116,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
+          <t>vars:test2</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>test2</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1116,14 +1116,10 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>vars:test2</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>test2</t>
-        </is>
-      </c>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1096,9 +1096,17 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>this vocabulary is working fine</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>vars:test</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -747,7 +747,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DTUbib test</t>
+          <t>DTUbib-vocab</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DTUbib test</t>
+          <t>Vocabulary produced during an M4M workshop</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1124,10 +1124,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
+          <t>vars:test2</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>test2</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1124,14 +1124,10 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>vars:test2</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>test2</t>
-        </is>
-      </c>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T89"/>
+  <dimension ref="A1:T90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -840,15 +840,15 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dct:rights</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>License under which the vocabulary is provided</t>
-        </is>
-      </c>
+          <t>dct:creator</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Jitka</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -870,13 +870,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>pav:version</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
+          <t>dct:rights</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CC-BY</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Vocabulary version</t>
+          <t>License under which the vocabulary is provided</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -900,13 +904,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
+          <t>pav:version</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0.0.1</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Date when vocabulary was initially created (follow https://en.wikipedia.org/wiki/ISO_8601)</t>
+          <t>Vocabulary version</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -930,13 +938,13 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
+          <t>pav:createdOn</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Date of the last vocabulary update</t>
+          <t>Date when vocabulary was initially created (follow https://en.wikipedia.org/wiki/ISO_8601)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -960,11 +968,15 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Definition of terms (optionally properties)</t>
+          <t>pav:lastUpdatedOn</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Date of the last vocabulary update</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
@@ -986,64 +998,20 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Identifier</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@en</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>qudt:unit(separator=",")</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=";")</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>Definition of terms (optionally properties)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1056,24 +1024,64 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>vars:test</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+          <t>skos:prefLabel@en</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>qudt:unit(separator=",")</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=";")</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1086,27 +1094,19 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>vars:working</t>
+          <t>vars:test</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>working</t>
+          <t>test</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>this vocabulary is working fine</t>
-        </is>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>vars:test</t>
-        </is>
-      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1124,15 +1124,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
+          <t>vars:working</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>working</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>this vocabulary is working fine</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>vars:test</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -2915,6 +2927,32 @@
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
     </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
